--- a/template Excel/MKT/SEO.xlsx
+++ b/template Excel/MKT/SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\MKT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5008C02F-E4B4-4F2B-A5E0-B64EA8F86D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457D1DF3-1A7B-44C4-ADC0-85FE72553466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,13 +128,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -420,7 +416,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +428,7 @@
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -458,7 +454,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -487,7 +483,7 @@
       <c r="G2" s="1">
         <v>50</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>25</v>
       </c>
       <c r="I2" s="1">
@@ -516,7 +512,7 @@
       <c r="G3" s="1">
         <v>40</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="1">
         <v>30</v>
       </c>
       <c r="I3" s="1">
@@ -545,7 +541,7 @@
       <c r="G4" s="1">
         <v>35</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="1">
         <v>28</v>
       </c>
       <c r="I4" s="1">
@@ -574,7 +570,7 @@
       <c r="G5" s="1">
         <v>45</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>26</v>
       </c>
       <c r="I5" s="1">
@@ -603,7 +599,7 @@
       <c r="G6" s="1">
         <v>30</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>32</v>
       </c>
       <c r="I6" s="1">
@@ -632,7 +628,7 @@
       <c r="G7" s="1">
         <v>48</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>27</v>
       </c>
       <c r="I7" s="1">
@@ -661,7 +657,7 @@
       <c r="G8" s="1">
         <v>42</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="1">
         <v>30</v>
       </c>
       <c r="I8" s="1">
@@ -690,7 +686,7 @@
       <c r="G9" s="1">
         <v>37</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="1">
         <v>33</v>
       </c>
       <c r="I9" s="1">
@@ -719,7 +715,7 @@
       <c r="G10" s="1">
         <v>32</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="1">
         <v>31</v>
       </c>
       <c r="I10" s="1">
@@ -748,7 +744,7 @@
       <c r="G11" s="1">
         <v>28</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="1">
         <v>35</v>
       </c>
       <c r="I11" s="1">
